--- a/xlsx/tied_three_eu.xlsx
+++ b/xlsx/tied_three_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D484E-F730-4D54-9993-47B4CF473E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2F264-B387-4A54-A116-CBB769EC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="96B11" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="41">
   <si>
     <t>1996 UEFA EU, group B, minute 11</t>
   </si>
@@ -163,6 +152,9 @@
   </si>
   <si>
     <t>2021 UEFA EU, group B, minute 81</t>
+  </si>
+  <si>
+    <t>tot goals</t>
   </si>
 </sst>
 </file>
@@ -544,23 +536,23 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -583,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -627,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -656,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -685,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -702,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -710,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -737,23 +729,23 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -776,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -820,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -849,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -878,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -895,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -903,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -914,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -931,27 +923,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A585A8-D151-441B-BBE3-ABA8E09F2E58}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -974,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1018,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1133,23 +1125,23 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1334,23 +1326,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1475,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1532,26 +1524,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1701,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1736,23 +1728,23 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1848,7 +1840,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1933,27 +1925,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79C16B0-54AD-4EAA-9718-34CF760F8A43}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -2049,7 +2041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>

--- a/xlsx/tied_three_eu.xlsx
+++ b/xlsx/tied_three_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2F264-B387-4A54-A116-CBB769EC67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459AD3EE-165C-4EC2-B910-3142B2A017C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="96B11" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
   <si>
     <t>1996 UEFA EU, group B, minute 11</t>
   </si>
@@ -97,9 +108,6 @@
     <t>tied</t>
   </si>
   <si>
-    <t>better overall gd than Italy</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -124,12 +132,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>Netherland</t>
-  </si>
-  <si>
-    <t>tot goals scored</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -155,13 +157,16 @@
   </si>
   <si>
     <t>tot goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +188,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +232,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,27 +253,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -530,29 +559,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -575,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -619,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -648,17 +677,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -677,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -694,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -702,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -710,9 +739,17 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -726,26 +763,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -768,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -812,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -841,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -857,20 +894,20 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="7">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -887,15 +924,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -903,15 +943,18 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -924,26 +967,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -957,21 +1000,21 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1010,12 +1053,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1026,25 +1069,25 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <f>I8-I9</f>
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f>J8-J9</f>
         <v>-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f>K8-K9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1068,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1085,15 +1128,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1101,15 +1147,18 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1122,26 +1171,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1158,15 +1207,15 @@
         <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1196,7 +1245,7 @@
     (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
     (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
 )</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <f>SUMPRODUCT(
@@ -1208,12 +1257,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1230,19 +1279,19 @@
       </c>
       <c r="J7">
         <f>J8-J9</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>K8-K9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1257,16 +1306,16 @@
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1283,34 +1332,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1326,23 +1375,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1359,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1409,12 +1458,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1438,9 +1487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1467,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1484,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1492,10 +1541,10 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1503,15 +1552,15 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1524,26 +1573,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1557,21 +1606,21 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1610,12 +1659,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1639,9 +1688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1655,7 +1704,7 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
@@ -1663,12 +1712,12 @@
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1693,26 +1742,26 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1725,26 +1774,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1758,21 +1807,21 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1811,12 +1860,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1827,22 +1876,22 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>I8-I9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <f>J8-J9</f>
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f>K8-K9</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1869,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1897,23 +1946,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1926,26 +1975,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1959,21 +2008,21 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2012,12 +2061,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2028,22 +2077,22 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>I8-I9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <f>J8-J9</f>
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f>K8-K9</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2070,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -2098,23 +2147,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/tied_three_eu.xlsx
+++ b/xlsx/tied_three_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459AD3EE-165C-4EC2-B910-3142B2A017C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523FAC44-5378-4433-9707-202A02268821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="96B11" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,30 +183,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -253,34 +241,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
-    <cellStyle name="Bad" xfId="6" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,26 +547,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -604,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -648,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -677,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -693,20 +678,20 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -723,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -731,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -742,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -763,26 +748,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -805,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -849,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -878,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -898,16 +883,16 @@
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -924,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -935,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -946,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -970,23 +955,23 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1069,11 +1054,11 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>I8-I9</f>
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>J8-J9</f>
         <v>-2</v>
       </c>
@@ -1082,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1171,26 +1156,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -1302,20 +1287,20 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1372,26 +1357,26 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1503,20 +1488,20 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1572,27 +1557,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CE4F59-4837-48A6-9080-73D14AC26ADB}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1704,20 +1689,20 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1777,23 +1762,23 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -1880,16 +1865,16 @@
         <f>I8-I9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>J8-J9</f>
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>K8-K9</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1974,27 +1959,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79C16B0-54AD-4EAA-9718-34CF760F8A43}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2061,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -2081,16 +2066,16 @@
         <f>I8-I9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>J8-J9</f>
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>K8-K9</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -2158,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>19</v>
       </c>
